--- a/GRUSubSampled.xlsx
+++ b/GRUSubSampled.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Using 10 past samples</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>2/1 epochs, model is predicting flat line -&gt; severly underfit. Multiple tries</t>
+  </si>
+  <si>
+    <t>2.9653518199920654</t>
+  </si>
+  <si>
+    <t>3m 8s / 2m 54s</t>
+  </si>
+  <si>
+    <t>12.526968819089731 %</t>
+  </si>
+  <si>
+    <t>5.8480646276361306 %</t>
+  </si>
+  <si>
+    <t>16.88605324018926 %</t>
+  </si>
+  <si>
+    <t>31/12 epochs</t>
   </si>
 </sst>
 </file>
@@ -959,13 +977,39 @@
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
